--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2811064.814121041</v>
+        <v>2808812.734409835</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F2" t="n">
-        <v>97.05670335916616</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>68.74868616823362</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>87.90026176856672</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666591</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>235.7835939636772</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.4600723927833</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>154.0058679980805</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>197.2040098788576</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.71051246856138</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893341</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763411</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440906</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>106.207802455916</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503923</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>240.7004451355349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>156.8624097380495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.20606459030872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>142.8873577254024</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1628.178203944121</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1259.215687003709</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>900.949988396959</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E2" t="n">
-        <v>515.1617357987147</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>607.0615673062264</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1526.909332214974</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1237.492162178014</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>1009.502611279996</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>788.7100321364661</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670285</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.746163729873</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.480465123123</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>768.6922125248784</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>761.746711775675</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>346.6742616206714</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734407</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>402.9356658273847</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.424878447885</v>
+        <v>812.5736815556418</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.863395621541</v>
+        <v>584.5841306576244</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>584.5841306576244</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3126.409852034566</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093661</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>748.6801430093661</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>600.767049426973</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>453.8771019290626</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>286.1742653037816</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>139.9570785216393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921482</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>215.8238677453423</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>982.1492342949674</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>813.2130513670605</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>663.0964119547248</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>515.1833183723317</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>368.2933708744213</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>201.0972715893012</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
         <v>489.9894131830887</v>
@@ -6847,13 +6847,13 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1405.737459147272</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1177.747908249255</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.9553291057244</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>913.2907898187001</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,19 +7497,19 @@
         <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
         <v>407.9027098310023</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.73700564187209</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431614</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187121</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>44.73700564187207</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346281</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>84.77391660561912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>34.08691039030785</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823553</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>11.43719818829314</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>176.3785887617861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.728115292809917</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380338</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184264</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.8081118428</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26445,19 +26445,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184277</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184276</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341464</v>
+        <v>-852113.0690341461</v>
       </c>
       <c r="C6" t="n">
         <v>476631.6766934466</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.6766934465</v>
+        <v>476631.6766934458</v>
       </c>
       <c r="E6" t="n">
-        <v>225754.1450011497</v>
+        <v>225719.407075714</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830698</v>
       </c>
       <c r="G6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830693</v>
       </c>
       <c r="H6" t="n">
-        <v>551166.6068085053</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="I6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="J6" t="n">
-        <v>333635.4044112274</v>
+        <v>333600.6664857924</v>
       </c>
       <c r="K6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830698</v>
       </c>
       <c r="L6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="M6" t="n">
-        <v>466111.5788729932</v>
+        <v>466076.8409475572</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.6068085049</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830695</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F2" t="n">
-        <v>309.8193423825453</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181373</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>164.2373815552613</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068146</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>58.8241704236433</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624492</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>71.70378739095662</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>152.0369588385554</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>23.64190794127671</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.704215726633014e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.704215726633014e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.704215726633014e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868834</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>541.2980521010961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>752.2150000824574</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>531.2627466777524</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>627.2230337139555</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>689.3300812557329</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>724.9681211658385</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,10 +34457,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>675.952017818248</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010415</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.6798975070092</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>620.8732879991242</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>397.2883392634221</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066202</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.6686539340813</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>557.9883691723996</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>582.8340872438201</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>533.3557733738036</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
